--- a/biology/Médecine/Alfred_Hardy/Alfred_Hardy.xlsx
+++ b/biology/Médecine/Alfred_Hardy/Alfred_Hardy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Louis Philippe Hardy (30 novembre 1811, Paris – 23 janvier 1893, Paris) était un dermatologue français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1836, il a reçu son doctorat en médecine à Paris, où, en 1839, il devint chef de clinique sous la direction de Pierre Fouquier à l'Hôpital de la Charité. En 1847, il a obtenu son agrégation à la faculté de médecine de Paris, et quatre ans plus tard, a succédé à Jean Guillaume Auguste Lugol en tant que chef de service à l'Hôpital Saint-Louis. En 1867, il a succédé à Jules Béhier de la chaire de pathologie interne à l'université, et en 1876 atteint la chaire de médecine clinique à l'Hôpital Necker[1],[2].
-En 1867, il devint membre de l'Académie de médecine (section de thérapeutique). En 1889, il a servi en tant que président du Premier Congrès International de Dermatologie et de syphilographie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1836, il a reçu son doctorat en médecine à Paris, où, en 1839, il devint chef de clinique sous la direction de Pierre Fouquier à l'Hôpital de la Charité. En 1847, il a obtenu son agrégation à la faculté de médecine de Paris, et quatre ans plus tard, a succédé à Jean Guillaume Auguste Lugol en tant que chef de service à l'Hôpital Saint-Louis. En 1867, il a succédé à Jules Béhier de la chaire de pathologie interne à l'université, et en 1876 atteint la chaire de médecine clinique à l'Hôpital Necker,.
+En 1867, il devint membre de l'Académie de médecine (section de thérapeutique). En 1889, il a servi en tant que président du Premier Congrès International de Dermatologie et de syphilographie.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1868, il publie "la Clinique photographique de l'Hôpital Saint-Louis", l'un des premiers livres sur la dermatologie à l'utilisation de la photographie (49 photographies originales, dont certaines ont été à la main de couleur).
 Traité élémentaire de pathologie interne (avec Jules Béhier) 3 volumes, 1846-55 – Élémentaire traité de pathologie interne.
 Leçons sur les maladies de la peau professés un l'hôpital St Louis, 1860 – Leçons sur les maladies de la peau à l'Hôpital Saint-Louis.
 Leçons sur les maladies dartreuses professées à l'hôpital Saint-Louis, 1862 – Leçons sur dartrous maladies enseigné à l'Hôpital Saint-Louis.
-Leçons sur la scrofule et les scrofulides et sur la syphilis et les syphilides professées à l'hôpital Saint-Louis, 1864[4].
+Leçons sur la scrofule et les scrofulides et sur la syphilis et les syphilides professées à l'hôpital Saint-Louis, 1864.
 "La dartrous diathèse, ou de l'eczéma et de ses alliés affections" : une traduction en anglais de Hardy "Leçons sur les maladies dartreuses" par Henry G. Piffard (1868).</t>
         </is>
       </c>
